--- a/Gestion de projet/Portefeuille des risques.xlsx
+++ b/Gestion de projet/Portefeuille des risques.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735" tabRatio="79"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="116">
   <si>
     <t>R-01</t>
   </si>
@@ -196,9 +196,6 @@
     <t>Récupérer les données depuis la sauvegarde ou gérer le conflit.</t>
   </si>
   <si>
-    <t>Récupérer les données depuis la sauvegarde.</t>
-  </si>
-  <si>
     <t>Notification aux développeurs. Correction du/des anomalies. Notification des testeurs. Nouvelle tentative de test.</t>
   </si>
   <si>
@@ -223,26 +220,167 @@
     <t>Respect des versions. Diagrammes de Gantt réalisés par les chefs de projets et validés par la MOE.</t>
   </si>
   <si>
-    <t>Pertes de données dans la base</t>
-  </si>
-  <si>
     <t>R-19</t>
   </si>
   <si>
     <t>Prévoir trop grand lors de la phase de conception</t>
   </si>
   <si>
-    <t>Le responsable de la base de données fera une sauvegarde des données tous les soirs</t>
-  </si>
-  <si>
     <t>Vérifier la faisabilité des choses à réaliser et en discuter  au sein de l'équipe qui en a la charge pour être sur que chacun est capable de le faire ou de se former à le faire</t>
+  </si>
+  <si>
+    <t>Responsable</t>
+  </si>
+  <si>
+    <t>Date limite</t>
+  </si>
+  <si>
+    <t>Chefs d'équipe</t>
+  </si>
+  <si>
+    <t>Le responsable de la base de données fera une sauvegarde 
+des données tous les soirs</t>
+  </si>
+  <si>
+    <t>MOE</t>
+  </si>
+  <si>
+    <t>Tous</t>
+  </si>
+  <si>
+    <t>MOE, Chefs d'équipe</t>
+  </si>
+  <si>
+    <t>Armand Charbonnier</t>
+  </si>
+  <si>
+    <t>Responsable des 
+tests, Chefs d'équipe</t>
+  </si>
+  <si>
+    <t>Jonathan Lemonsu</t>
+  </si>
+  <si>
+    <t>Mettre en place une sauvegarde. Récupérer les données depuis la sauvegarde.</t>
+  </si>
+  <si>
+    <t>Quentin Bisson</t>
+  </si>
+  <si>
+    <t>Perte de données dans la base</t>
+  </si>
+  <si>
+    <t>R-20</t>
+  </si>
+  <si>
+    <t>Communication inter-portlet difficile (IPC)</t>
+  </si>
+  <si>
+    <t>R-21</t>
+  </si>
+  <si>
+    <t>Limites aux capacités du langage (JSF)</t>
+  </si>
+  <si>
+    <t>R-22</t>
+  </si>
+  <si>
+    <t>Recherche peu performante (temps de recherche)</t>
+  </si>
+  <si>
+    <t>R-23</t>
+  </si>
+  <si>
+    <t>Perte de pertinence sur la recherche combinée</t>
+  </si>
+  <si>
+    <t>Tester plusieurs solutions comme la fusion tardive 
+où précoce pour évaluer les scores de pertinences.</t>
+  </si>
+  <si>
+    <t>Se renseigner en amont sur les capacités de communication entre les portlets vis-à-vis de nos besoins</t>
+  </si>
+  <si>
+    <t>Se documenter sur les autres langages (PrimeFaces, ICEfaces, RichFaces)</t>
+  </si>
+  <si>
+    <t>Temps alloué à la recherche important afin d’optimisé au maximum le temps de recherche.</t>
+  </si>
+  <si>
+    <t>Equipe Orange</t>
+  </si>
+  <si>
+    <t>Equipe Bleue</t>
+  </si>
+  <si>
+    <t>ouvert/fermé</t>
+  </si>
+  <si>
+    <t>R-24</t>
+  </si>
+  <si>
+    <t>Equipe Verte</t>
+  </si>
+  <si>
+    <t>Perte de temps à analyser les vecteurs sift, dont les caractéristiques extraites ne seraient pas déterminantes</t>
+  </si>
+  <si>
+    <t>ouvert</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vérifier les caractéristiques renvoyées par les vecteurs sifts et determiner si leur analyse est intéressante </t>
+  </si>
+  <si>
+    <t>fermé: Avec les différentes réunions qui ont 
+eu lieu, et la relecture du CCTP par tous les membres 
+de l'équipe, nous concluons qu'aucun oublie de 
+fonctionnalité n'a été oublié</t>
+  </si>
+  <si>
+    <t>fermé: les différents membres des équipes ont 
+pu prendre connaissance de leur rôle au sein du projet et par conséquent avancer sur les différentes
+conceptions de leurs taches</t>
+  </si>
+  <si>
+    <t>fermé</t>
+  </si>
+  <si>
+    <t>Fermé</t>
+  </si>
+  <si>
+    <t>ouvert : les fiches techniques réalisées par les équipes assurent la possibilité d'effectuer toutes les actions du projet (en attente de validation)</t>
+  </si>
+  <si>
+    <t>Ouvert : voir remarque précédente</t>
+  </si>
+  <si>
+    <t>Ouvert: mise en place de divers architecture
+ (git, nexus…) avec l'aide d'un professionnel qui assure une bonne communication inter-machine</t>
+  </si>
+  <si>
+    <t>ouvert:  Il y aura peu d'échanges entre les portlets</t>
+  </si>
+  <si>
+    <t>fermé :  Jsf et PrimeFaces permettent d'effectuer
+toutes les actions souhaitées.</t>
+  </si>
+  <si>
+    <t>fermé : l'équipe bleu à  réaliser des tests et essaiera d'optimier la recherche en utilisant les n premiers résultats</t>
+  </si>
+  <si>
+    <t>fermé : les solutions ont été présentées lors de la réunion d'avancement du 17/12/2013 concernant la fusion au niveau du service de recherche.</t>
+  </si>
+  <si>
+    <t>fermé: l'équipe verte a réalisé des tests 
+avec les vecteurs sift. Le résultat est similaire
+ aux autres méthodes de classification. Il sera donc utilisé lors de la classification des images</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -271,8 +409,21 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFFC000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -291,38 +442,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="11">
+  <borders count="4">
     <border>
       <left/>
       <right/>
       <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -343,22 +474,15 @@
     </border>
     <border>
       <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -372,129 +496,75 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -799,10 +869,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G20"/>
+  <dimension ref="A1:J25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -813,466 +883,809 @@
     <col min="4" max="4" width="12.5703125" customWidth="1"/>
     <col min="5" max="5" width="20.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="55.28515625" customWidth="1"/>
+    <col min="8" max="8" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.42578125" customWidth="1"/>
+    <col min="10" max="10" width="51.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="12" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="9" t="s">
+      <c r="H1" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="J1" s="12" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="6">
+      <c r="F2" s="2">
         <v>10</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="3" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="9" t="s">
+      <c r="H2" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="I2" s="9">
+        <v>41628</v>
+      </c>
+      <c r="J2" s="25" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="9">
+      <c r="F3" s="2">
         <v>8</v>
       </c>
-      <c r="G3" s="10" t="s">
+      <c r="G3" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="H3" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="I3" s="9">
+        <v>41645</v>
+      </c>
+      <c r="J3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="2">
+        <v>8</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="H4" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="I4" s="9">
+        <v>41645</v>
+      </c>
+      <c r="J4" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" s="2">
+        <v>20</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="H5" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="I5" s="9">
+        <v>41698</v>
+      </c>
+      <c r="J5" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6" s="2">
+        <v>10</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="H6" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="I6" s="9">
+        <v>41614</v>
+      </c>
+      <c r="J6" s="26" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" s="2">
+        <v>6</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="H7" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="I7" s="9">
+        <v>41645</v>
+      </c>
+      <c r="J7" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F8" s="2">
+        <v>10</v>
+      </c>
+      <c r="G8" s="3" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="3" t="s">
+      <c r="H8" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="I8" s="9">
+        <v>41614</v>
+      </c>
+      <c r="J8" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F9" s="2">
+        <v>12</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="H9" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="I9" s="9">
+        <v>41653</v>
+      </c>
+      <c r="J9" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F10" s="2">
         <v>10</v>
       </c>
-      <c r="C4" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="9" t="s">
+      <c r="G10" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="H10" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="I10" s="9">
+        <v>41635</v>
+      </c>
+      <c r="J10" s="24" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F11" s="2">
+        <v>12</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="H11" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="I11" s="9">
+        <v>41635</v>
+      </c>
+      <c r="J11" s="24" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F12" s="2">
+        <v>12</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="H12" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="I12" s="9">
+        <v>41645</v>
+      </c>
+      <c r="J12" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F13" s="2">
+        <v>12</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="H13" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="I13" s="9">
+        <v>41698</v>
+      </c>
+      <c r="J13" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="E14" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="9">
+      <c r="F14" s="2">
         <v>8</v>
       </c>
-      <c r="G4" s="10" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="3" t="s">
+      <c r="G14" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="H14" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="I14" s="9">
+        <v>41653</v>
+      </c>
+      <c r="J14" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F15" s="2">
+        <v>10</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="H15" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="I15" s="9">
+        <v>41698</v>
+      </c>
+      <c r="J15" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B16" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F16" s="2">
+        <v>10</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="H16" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="I16" s="9">
+        <v>41698</v>
+      </c>
+      <c r="J16" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B17" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F17" s="2">
         <v>12</v>
       </c>
-      <c r="C5" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="8" t="s">
+      <c r="G17" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="H17" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="I17" s="9">
+        <v>41698</v>
+      </c>
+      <c r="J17" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F18" s="2">
+        <v>15</v>
+      </c>
+      <c r="G18" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="H18" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="I18" s="9">
+        <v>41635</v>
+      </c>
+      <c r="J18" s="24" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="A19" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="B19" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="E19" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="9">
+      <c r="F19" s="14">
         <v>20</v>
       </c>
-      <c r="G5" s="10" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" s="9" t="s">
+      <c r="G19" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="H19" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="I19" s="9">
+        <v>41628</v>
+      </c>
+      <c r="J19" s="24" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="E6" s="8" t="s">
+      <c r="E20" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F6" s="9">
+      <c r="F20" s="14">
         <v>10</v>
       </c>
-      <c r="G6" s="10" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7" s="3" t="s">
+      <c r="G20" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="H20" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="I20" s="9">
+        <v>41653</v>
+      </c>
+      <c r="J20" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" s="27" t="s">
+        <v>3</v>
+      </c>
+      <c r="E21" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="F21" s="2">
+        <v>6</v>
+      </c>
+      <c r="G21" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="H21" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="I21" s="9">
+        <v>41635</v>
+      </c>
+      <c r="J21" s="24" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F22" s="2">
+        <v>10</v>
+      </c>
+      <c r="G22" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="H22" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="I22" s="9">
+        <v>41628</v>
+      </c>
+      <c r="J22" s="25" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F23" s="2">
         <v>18</v>
       </c>
-      <c r="C7" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" s="8" t="s">
+      <c r="G23" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="H23" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="I23" s="9">
+        <v>41621</v>
+      </c>
+      <c r="J23" s="25" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F24" s="2">
+        <v>24</v>
+      </c>
+      <c r="G24" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="H24" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="I24" s="9">
+        <v>41628</v>
+      </c>
+      <c r="J24" s="25" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="B25" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="C25" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="F7" s="9">
-        <v>6</v>
-      </c>
-      <c r="G7" s="10" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="E8" s="8" t="s">
+      <c r="E25" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="F8" s="9">
+      <c r="F25" s="21">
         <v>10</v>
       </c>
-      <c r="G8" s="10" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="E9" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F9" s="9">
-        <v>12</v>
-      </c>
-      <c r="G9" s="10" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="E10" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="F10" s="9">
-        <v>10</v>
-      </c>
-      <c r="G10" s="10" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E11" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F11" s="9">
-        <v>12</v>
-      </c>
-      <c r="G11" s="10" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E12" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F12" s="9">
-        <v>12</v>
-      </c>
-      <c r="G12" s="11" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A13" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="B13" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="C13" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="E13" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="F13" s="15">
-        <v>12</v>
-      </c>
-      <c r="G13" s="16" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="B14" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="D14" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="E14" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F14" s="9">
-        <v>8</v>
-      </c>
-      <c r="G14" s="10" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="B15" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="D15" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="E15" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="F15" s="9">
-        <v>10</v>
-      </c>
-      <c r="G15" s="10" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="B16" s="20" t="s">
-        <v>63</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="D16" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="E16" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="F16" s="9">
-        <v>10</v>
-      </c>
-      <c r="G16" s="10" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A17" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="B17" s="20" t="s">
-        <v>64</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="D17" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="E17" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="F17" s="9">
-        <v>12</v>
-      </c>
-      <c r="G17" s="18" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="B18" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="C18" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="D18" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E18" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="F18" s="9">
-        <v>15</v>
-      </c>
-      <c r="G18" s="18" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A19" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="B19" s="22" t="s">
-        <v>71</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="D19" s="23" t="s">
-        <v>39</v>
-      </c>
-      <c r="E19" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="F19" s="23">
-        <v>20</v>
-      </c>
-      <c r="G19" s="24" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="21" t="s">
-        <v>70</v>
-      </c>
-      <c r="B20" s="25" t="s">
-        <v>69</v>
-      </c>
-      <c r="C20" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="D20" s="23" t="s">
-        <v>3</v>
-      </c>
-      <c r="E20" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="F20" s="23">
-        <v>10</v>
-      </c>
-      <c r="G20" s="25" t="s">
-        <v>72</v>
+      <c r="G25" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="H25" s="22" t="s">
+        <v>100</v>
+      </c>
+      <c r="I25" s="23">
+        <v>41628</v>
+      </c>
+      <c r="J25" s="24" t="s">
+        <v>115</v>
       </c>
     </row>
   </sheetData>
